--- a/Projects/2_Classical Planning/Results.xlsx
+++ b/Projects/2_Classical Planning/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wladimirtn\Desktop\NanoDegrees\Artificial_Intelligence-NanoDegree-Udacity\Projects\2_Classical Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{248238CA-8E94-4CFD-AEB4-640C219F0F36}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55F604F-1BAA-4307-B8B8-962641EB700F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4180" xr2:uid="{DEBAFB2F-A199-433C-AD08-078C78F33793}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4180" xr2:uid="{DEBAFB2F-A199-433C-AD08-078C78F33793}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -98,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="196" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="197" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,8 +152,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="196" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -328,6 +328,43 @@
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$B$17:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -419,6 +456,43 @@
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$C$17:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2671</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -510,6 +584,43 @@
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$D$17:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2673</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -601,6 +712,43 @@
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$E$17:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22522</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24523</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -734,6 +882,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="433037816"/>
         <c:axId val="436733272"/>
@@ -810,7 +959,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00000000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -925,7 +1074,1011 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t> Time elapsed - P 3</a:t>
+              <a:t>Actions vs Expansions - P 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$3:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1. breadth_first_search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. depth_first_graph_search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. uniform_cost_search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. astar_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. astar_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. astar_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11. astar_search h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BCA-4E0C-990A-D4CDAD2CFAC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expansions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$3:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1. breadth_first_search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. depth_first_graph_search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. uniform_cost_search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. astar_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. astar_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. astar_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11. astar_search h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BCA-4E0C-990A-D4CDAD2CFAC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="454555192"/>
+        <c:axId val="454554864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="454555192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454554864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454554864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454555192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Actions vs Expansions - P 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$17:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1. breadth_first_search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. depth_first_graph_search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. uniform_cost_search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. astar_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. astar_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. astar_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11. astar_search h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$17:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DBB-4065-A694-BF5C770B6416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expansions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$17:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1. breadth_first_search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. depth_first_graph_search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. uniform_cost_search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. astar_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. astar_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. astar_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11. astar_search h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$17:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DBB-4065-A694-BF5C770B6416}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="462365568"/>
+        <c:axId val="462363272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="462365568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462363272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462363272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462365568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Actions vs Expansions - P 3</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -989,19 +2142,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1047,12 +2188,49 @@
           <c:val>
             <c:numRef>
               <c:f>Planilha1!$B$31:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3A5-43B6-B189-069A1FF175CB}"/>
+              <c16:uniqueId val="{00000000-3B3B-41E5-B3FE-ABF49340C859}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1074,279 +2252,6 @@
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$31:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1. breadth_first_search</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2. depth_first_graph_search</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3. uniform_cost_search</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8. astar_search h_unmet_goals</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9. astar_search h_pg_levelsum</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10. astar_search h_pg_maxlevel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11. astar_search h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$C$31:$C$41</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D3A5-43B6-B189-069A1FF175CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$D$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Goal Tests</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$31:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1. breadth_first_search</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2. depth_first_graph_search</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3. uniform_cost_search</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8. astar_search h_unmet_goals</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9. astar_search h_pg_levelsum</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10. astar_search h_pg_maxlevel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11. astar_search h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$D$31:$D$41</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D3A5-43B6-B189-069A1FF175CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>New Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Planilha1!$A$31:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1. breadth_first_search</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2. depth_first_graph_search</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3. uniform_cost_search</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8. astar_search h_unmet_goals</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9. astar_search h_pg_levelsum</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10. astar_search h_pg_maxlevel</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11. astar_search h_pg_setlevel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Planilha1!$E$31:$E$41</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D3A5-43B6-B189-069A1FF175CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Planilha1!$F$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Time elapsed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1398,42 +2303,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$F$31:$F$41</c:f>
+              <c:f>Planilha1!$C$31:$C$41</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>8.5662453489999901</c:v>
+                  <c:v>14663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93171967600000005</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.045990934000001</c:v>
+                  <c:v>18510</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2268868999999999E-2</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.901587919000001</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.387537923</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180.28200000000001</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0182283739999995</c:v>
+                  <c:v>7388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231.95642100000001</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4329.947494</c:v>
+                  <c:v>95080</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14123.048593699999</c:v>
+                  <c:v>101176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,7 +2346,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D3A5-43B6-B189-069A1FF175CB}"/>
+              <c16:uniqueId val="{00000001-3B3B-41E5-B3FE-ABF49340C859}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1454,11 +2359,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="436169024"/>
-        <c:axId val="533887800"/>
+        <c:axId val="395898960"/>
+        <c:axId val="395892400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="436169024"/>
+        <c:axId val="395898960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +2406,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533887800"/>
+        <c:crossAx val="395892400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +2414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="533887800"/>
+        <c:axId val="395892400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +2434,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1560,7 +2465,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436169024"/>
+        <c:crossAx val="395898960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,6 +2477,532 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Actions vs Expansions - P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$45:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. breadth_first_search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. depth_first_graph_search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. uniform_cost_search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. astar_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. astar_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. astar_search h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$45:$B$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8657-4AE3-B3B7-883FBE8D8804}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expansions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$45:$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1. breadth_first_search</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. depth_first_graph_search</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. uniform_cost_search</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. greedy_best_first_graph_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5. greedy_best_first_graph_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6. greedy_best_first_graph_search h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7. greedy_best_first_graph_search h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8. astar_search h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9. astar_search h_pg_levelsum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10. astar_search h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$45:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8657-4AE3-B3B7-883FBE8D8804}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="454558800"/>
+        <c:axId val="454558144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="454558800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454558144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454558144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454558800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1689,6 +3120,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2721,20 +4272,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2633662</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1522412</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>268287</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2761,23 +5860,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2633662</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DFC3D7-F0FE-4C48-BB81-F765B8F51138}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F081F77F-5532-4DC9-9D57-67C6DFC2E927}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2790,6 +5889,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2633662</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1281112</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20B156D6-64ED-40C5-8953-4878C05BA427}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2633662</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1281112</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A1DF98-CAA9-4527-B383-BB32579ADD8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2633662</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1281112</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{293B4F33-76E0-4753-A27C-06C39F1FC462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3097,17 +6304,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C155CAB9-6EB8-4829-BA39-E6D716F4F040}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
     <col min="6" max="6" width="27.7265625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
